--- a/test.xlsx
+++ b/test.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66FB208-16A5-44B7-B0B1-D0A89013FBE9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C90E5F-1F6A-4B4B-973C-F7EC0D916357}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
       <b/>
       <i/>
       <strike/>
-      <u val="double"/>
+      <u/>
       <vertAlign val="subscript"/>
       <sz val="18"/>
       <color theme="1"/>
@@ -376,21 +376,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>10000</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <f>C1*D1</f>
+        <v>369</v>
       </c>
       <c r="C1">
         <v>3</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C90E5F-1F6A-4B4B-973C-F7EC0D916357}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95220CF-F65F-437C-A2E4-76187F36EA86}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -79,14 +79,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,7 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -398,17 +468,35 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95220CF-F65F-437C-A2E4-76187F36EA86}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5372EC-A204-417C-9C6F-D077642C9680}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>hi world!</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +52,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -56,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -91,19 +112,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -145,15 +153,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,12 +453,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -469,33 +478,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2">
+    <row r="3" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5372EC-A204-417C-9C6F-D077642C9680}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1024A97-0AF9-4680-AAA5-E0E7BB65E165}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,16 +453,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>10000</v>
       </c>
@@ -477,7 +478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1024A97-0AF9-4680-AAA5-E0E7BB65E165}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33574EFC-E663-43CC-9E11-D03A7F078A5A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>hi world!</t>
   </si>
   <si>
     <t>текст</t>
+  </si>
+  <si>
+    <t>dashDotDot</t>
+  </si>
+  <si>
+    <t>mediumDashDotDot</t>
+  </si>
+  <si>
+    <t>slantDashDot</t>
+  </si>
+  <si>
+    <t>mediumDashDot</t>
+  </si>
+  <si>
+    <t>mediumDashed</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>dotted</t>
+  </si>
+  <si>
+    <t>dashed</t>
+  </si>
+  <si>
+    <t>dashDot</t>
+  </si>
+  <si>
+    <t>hair</t>
   </si>
 </sst>
 </file>
@@ -77,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -129,41 +168,242 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="double">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,11 +703,11 @@
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" ht="99.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="9">
         <v>10000</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="6">
         <f>C1*D1</f>
         <v>369</v>
       </c>
@@ -478,27 +718,91 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33574EFC-E663-43CC-9E11-D03A7F078A5A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5E3A72-3877-4C76-97F2-ED5647751057}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,6 +182,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="mediumDashed">
         <color auto="1"/>
       </left>
@@ -193,21 +208,6 @@
       </top>
       <bottom style="mediumDashed">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -387,11 +387,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -692,19 +692,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="99.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9">
+      <c r="A1" s="7">
         <v>10000</v>
       </c>
       <c r="B1" s="6">
@@ -731,7 +729,7 @@
       <c r="D2" s="2">
         <v>77</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -749,13 +747,13 @@
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5E3A72-3877-4C76-97F2-ED5647751057}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C05E98-20F3-43B8-8CE2-D50CA677B666}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>hi world!</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>hair</t>
+  </si>
+  <si>
+    <t>"очень важный текст, который нельзя менять, просто потому что"</t>
+  </si>
+  <si>
+    <t>Текст</t>
   </si>
 </sst>
 </file>
@@ -373,18 +379,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,6 +401,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -690,9 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -702,10 +713,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="99.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7">
+      <c r="A1" s="4">
         <v>10000</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <f>C1*D1</f>
         <v>369</v>
       </c>
@@ -717,7 +728,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -726,86 +737,173 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="19">
         <v>77</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="D17" s="20" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C05E98-20F3-43B8-8CE2-D50CA677B666}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22192440-80D0-4908-A325-3DB73E3B6433}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,28 +767,40 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>20</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>30</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
+      <c r="C10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,16 +808,16 @@
       <c r="B11">
         <v>50</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="C11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>60</v>
       </c>
-      <c r="E12">
-        <v>2</v>
+      <c r="C12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -815,11 +827,11 @@
       <c r="B13">
         <v>70</v>
       </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -829,11 +841,11 @@
       <c r="B14">
         <v>80</v>
       </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
       <c r="D14" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -843,11 +855,11 @@
       <c r="B15">
         <v>90</v>
       </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
       <c r="D15" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -857,46 +869,32 @@
       <c r="B16">
         <v>100</v>
       </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
       <c r="D16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
